--- a/Template_Euro2024.xlsx
+++ b/Template_Euro2024.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\153002\github\pronoseuros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DF787C4-9A7D-4360-8ECE-84AE5E4F7524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{81B51F24-8BB8-4857-B4A2-4478DD11F831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="217" uniqueCount="92">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="215" uniqueCount="86">
   <si>
     <t>Rappel des règles :</t>
   </si>
@@ -360,28 +360,10 @@
     <t>Demi-finales</t>
   </si>
   <si>
-    <t>Vainqueur match 45</t>
-  </si>
-  <si>
-    <t>Vainqueur match 46</t>
-  </si>
-  <si>
-    <t>Vainqueur match 47</t>
-  </si>
-  <si>
-    <t>Vainqueur match 48</t>
-  </si>
-  <si>
     <t>14 juillet 21h</t>
   </si>
   <si>
     <t>Final</t>
-  </si>
-  <si>
-    <t>Vainqueur match 49</t>
-  </si>
-  <si>
-    <t>Vainqueur match 50</t>
   </si>
   <si>
     <t>Répondre à ces questions pour le 29/06</t>
@@ -399,7 +381,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-40C]h&quot;:&quot;mm&quot;:&quot;ss&quot; &quot;AM/PM"/>
     <numFmt numFmtId="165" formatCode="hh&quot;:&quot;mm;@"/>
@@ -659,16 +641,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="19" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="17" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="17" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -693,37 +675,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="18" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -733,7 +700,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="17" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -744,7 +711,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -763,6 +730,24 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -772,12 +757,7 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -785,50 +765,30 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="20">
-    <cellStyle name="cf1" xfId="1"/>
-    <cellStyle name="cf10" xfId="2"/>
-    <cellStyle name="cf11" xfId="3"/>
-    <cellStyle name="cf12" xfId="4"/>
-    <cellStyle name="cf13" xfId="5"/>
-    <cellStyle name="cf14" xfId="6"/>
-    <cellStyle name="cf15" xfId="7"/>
-    <cellStyle name="cf16" xfId="8"/>
-    <cellStyle name="cf2" xfId="9"/>
-    <cellStyle name="cf3" xfId="10"/>
-    <cellStyle name="cf4" xfId="11"/>
-    <cellStyle name="cf5" xfId="12"/>
-    <cellStyle name="cf6" xfId="13"/>
-    <cellStyle name="cf7" xfId="14"/>
-    <cellStyle name="cf8" xfId="15"/>
-    <cellStyle name="cf9" xfId="16"/>
-    <cellStyle name="Excel Built-in Normal" xfId="17"/>
-    <cellStyle name="Hyperlink" xfId="18"/>
+    <cellStyle name="cf1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="cf10" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="cf11" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="cf12" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="cf13" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="cf14" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="cf15" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="cf16" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="cf2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="cf3" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="cf4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="cf5" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="cf6" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="cf7" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="cf8" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="cf9" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Hyperlink" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Normal 4" xfId="19"/>
+    <cellStyle name="Normal 4" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
   </cellStyles>
-  <dxfs count="68">
-    <dxf>
-      <font>
-        <i/>
-        <color rgb="FF808080"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
+  <dxfs count="34">
     <dxf>
       <font>
         <b/>
@@ -844,7 +804,15 @@
     </dxf>
     <dxf>
       <font>
+        <i/>
+        <color rgb="FF0000FF"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
+        <color rgb="FF0000FF"/>
         <family val="2"/>
       </font>
     </dxf>
@@ -863,7 +831,28 @@
     </dxf>
     <dxf>
       <font>
+        <i/>
+        <color rgb="FF0000FF"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
+        <color rgb="FF0000FF"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <color rgb="FF808080"/>
         <family val="2"/>
       </font>
     </dxf>
@@ -883,6 +872,45 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <color rgb="FF808080"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <color rgb="FF808080"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <color rgb="FF808080"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <i/>
         <color rgb="FF0000FF"/>
         <family val="2"/>
@@ -898,7 +926,6 @@
     <dxf>
       <font>
         <b/>
-        <color rgb="FF0000FF"/>
         <family val="2"/>
       </font>
     </dxf>
@@ -912,59 +939,6 @@
     <dxf>
       <font>
         <i/>
-        <color rgb="FF808080"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <color rgb="FF808080"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <color rgb="FF808080"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <color rgb="FF808080"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <color rgb="FF808080"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
         <color rgb="FF0000FF"/>
         <family val="2"/>
       </font>
@@ -973,227 +947,6 @@
       <font>
         <b/>
         <color rgb="FF0000FF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <color rgb="FF0000FF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <color rgb="FF0000FF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF0000FF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <color rgb="FF808080"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <color rgb="FF808080"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <color rgb="FF808080"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <color rgb="FF808080"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <color rgb="FF0000FF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF0000FF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <color rgb="FF808080"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <color rgb="FF0000FF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF0000FF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <color rgb="FF808080"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <color rgb="FF0000FF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF0000FF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <color rgb="FF808080"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <color rgb="FF0000FF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF0000FF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <color rgb="FF808080"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <color rgb="FF0000FF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF0000FF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <color rgb="FF808080"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <color rgb="FF808080"/>
         <family val="2"/>
       </font>
     </dxf>
@@ -1737,7 +1490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1752,14 +1505,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1835,15 +1588,15 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="18" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -1885,30 +1638,30 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
     </row>
     <row r="24" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
       <c r="I24" s="5"/>
       <c r="J24" s="6"/>
     </row>
@@ -1975,34 +1728,28 @@
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A24:H24"/>
   </mergeCells>
-  <conditionalFormatting sqref="H25:H26">
-    <cfRule type="expression" dxfId="33" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="E25:E26">
+    <cfRule type="expression" dxfId="33" priority="1" stopIfTrue="1">
       <formula>#REF!&lt;$G25</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E26">
-    <cfRule type="expression" dxfId="32" priority="1" stopIfTrue="1">
-      <formula>#REF!&lt;$G25</formula>
+    <cfRule type="expression" dxfId="32" priority="2" stopIfTrue="1">
+      <formula>#REF!&gt;$G25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:G26">
     <cfRule type="expression" dxfId="31" priority="3" stopIfTrue="1">
       <formula>#REF!&lt;$G25</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E26">
-    <cfRule type="expression" dxfId="30" priority="2" stopIfTrue="1">
-      <formula>#REF!&gt;$G25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25:G26">
-    <cfRule type="expression" dxfId="29" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="4" stopIfTrue="1">
       <formula>#REF!&gt;$G25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H26">
-    <cfRule type="expression" dxfId="28" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="5" stopIfTrue="1">
       <formula>#REF!&gt;$G25</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="6" stopIfTrue="1">
+      <formula>#REF!&lt;$G25</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
@@ -2010,11 +1757,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:H63"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2031,122 +1778,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
       <c r="I2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="35" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="17"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="14">
         <v>3</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="14">
         <v>1</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="14">
         <v>0</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="14">
         <v>0</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="22" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="18" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2171,11 +1918,11 @@
       <c r="H8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="19">
         <v>2</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -2195,11 +1942,11 @@
       <c r="H9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+      <c r="A10" s="19">
         <v>3</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2219,11 +1966,11 @@
       <c r="H10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+      <c r="A11" s="19">
         <v>4</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2243,11 +1990,11 @@
       <c r="H11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+      <c r="A12" s="19">
         <v>5</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -2267,11 +2014,11 @@
       <c r="H12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+      <c r="A13" s="19">
         <v>6</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -2291,11 +2038,11 @@
       <c r="H13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="A14" s="19">
         <v>7</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2315,11 +2062,11 @@
       <c r="H14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+      <c r="A15" s="19">
         <v>8</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -2339,11 +2086,11 @@
       <c r="H15" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+      <c r="A16" s="19">
         <v>9</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -2363,11 +2110,11 @@
       <c r="H16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+      <c r="A17" s="19">
         <v>10</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -2379,19 +2126,19 @@
       <c r="D17" s="9" t="d">
         <v>2021-06-14T21:00:00.000</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25" t="s">
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+      <c r="A18" s="19">
         <v>11</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -2411,11 +2158,11 @@
       <c r="H18" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="A19" s="19">
         <v>12</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -2435,26 +2182,26 @@
       <c r="H19" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="26" t="s">
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="21" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
+      <c r="A21" s="19">
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -2474,11 +2221,11 @@
       <c r="H21" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
+      <c r="A22" s="19">
         <v>14</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -2498,11 +2245,11 @@
       <c r="H22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
+      <c r="A23" s="19">
         <v>15</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -2522,11 +2269,11 @@
       <c r="H23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
+      <c r="A24" s="19">
         <v>16</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -2546,11 +2293,11 @@
       <c r="H24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
+      <c r="A25" s="19">
         <v>17</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -2570,11 +2317,11 @@
       <c r="H25" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
+      <c r="A26" s="19">
         <v>18</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -2594,11 +2341,11 @@
       <c r="H26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
+      <c r="A27" s="19">
         <v>19</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -2618,11 +2365,11 @@
       <c r="H27" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
+      <c r="A28" s="19">
         <v>20</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -2642,11 +2389,11 @@
       <c r="H28" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
+      <c r="A29" s="19">
         <v>21</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -2658,19 +2405,19 @@
       <c r="D29" s="9" t="d">
         <v>2021-06-18T21:00:00.000</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25" t="s">
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="24">
+      <c r="A30" s="19">
         <v>22</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2690,11 +2437,11 @@
       <c r="H30" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="24">
+      <c r="A31" s="19">
         <v>23</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -2714,11 +2461,11 @@
       <c r="H31" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="24">
+      <c r="A32" s="19">
         <v>24</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -2738,27 +2485,27 @@
       <c r="H32" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="22" t="s">
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="18" t="s">
         <v>38</v>
       </c>
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="24">
+      <c r="A34" s="19">
         <v>25</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -2767,7 +2514,7 @@
       <c r="C34" s="8" t="d">
         <v>2021-06-23T21:00:00.000</v>
       </c>
-      <c r="D34" s="27" t="d">
+      <c r="D34" s="22" t="d">
         <v>2021-06-23T21:00:00.000</v>
       </c>
       <c r="E34" s="7" t="s">
@@ -2778,11 +2525,11 @@
       <c r="H34" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="24">
+      <c r="A35" s="19">
         <v>26</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -2791,7 +2538,7 @@
       <c r="C35" s="8" t="d">
         <v>2021-06-23T21:00:00.000</v>
       </c>
-      <c r="D35" s="27" t="d">
+      <c r="D35" s="22" t="d">
         <v>2021-06-23T21:00:00.000</v>
       </c>
       <c r="E35" s="7" t="s">
@@ -2802,11 +2549,11 @@
       <c r="H35" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="24">
+      <c r="A36" s="19">
         <v>27</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -2826,11 +2573,11 @@
       <c r="H36" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="24">
+      <c r="A37" s="19">
         <v>28</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -2850,11 +2597,11 @@
       <c r="H37" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="24">
+      <c r="A38" s="19">
         <v>29</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -2874,11 +2621,11 @@
       <c r="H38" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="24">
+      <c r="A39" s="19">
         <v>30</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -2890,19 +2637,19 @@
       <c r="D39" s="9" t="d">
         <v>2021-06-25T18:00:00.000</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25" t="s">
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="24">
+      <c r="A40" s="19">
         <v>31</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -2922,11 +2669,11 @@
       <c r="H40" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="24">
+      <c r="A41" s="19">
         <v>32</v>
       </c>
       <c r="B41" s="7" t="s">
@@ -2946,11 +2693,11 @@
       <c r="H41" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="24">
+      <c r="A42" s="19">
         <v>33</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -2970,11 +2717,11 @@
       <c r="H42" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="24">
+      <c r="A43" s="19">
         <v>34</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -2994,11 +2741,11 @@
       <c r="H43" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="24">
+      <c r="A44" s="19">
         <v>35</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -3018,11 +2765,11 @@
       <c r="H44" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="24">
+      <c r="A45" s="19">
         <v>36</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -3042,35 +2789,35 @@
       <c r="H45" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
     </row>
     <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
     </row>
     <row r="47" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="26" t="s">
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="21" t="s">
         <v>70</v>
       </c>
       <c r="J47" s="6"/>
@@ -3079,7 +2826,7 @@
       <c r="A48" s="7">
         <v>37</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="23" t="s">
         <v>74</v>
       </c>
       <c r="C48" s="8" t="d">
@@ -3096,14 +2843,14 @@
       <c r="H48" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="24">
+      <c r="A49" s="19">
         <v>38</v>
       </c>
-      <c r="B49" s="28"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="8" t="d">
         <v>2021-06-29T18:00:00.000</v>
       </c>
@@ -3118,14 +2865,14 @@
       <c r="H49" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="24">
+      <c r="A50" s="19">
         <v>39</v>
       </c>
-      <c r="B50" s="28"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="8" t="d">
         <v>2021-06-30T18:00:00.000</v>
       </c>
@@ -3140,14 +2887,14 @@
       <c r="H50" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="24">
+      <c r="A51" s="19">
         <v>40</v>
       </c>
-      <c r="B51" s="28"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="8" t="d">
         <v>2021-06-30T21:00:00.000</v>
       </c>
@@ -3162,14 +2909,14 @@
       <c r="H51" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="24">
+      <c r="A52" s="19">
         <v>41</v>
       </c>
-      <c r="B52" s="28"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="8" t="d">
         <v>2021-07-01T18:00:00.000</v>
       </c>
@@ -3184,14 +2931,14 @@
       <c r="H52" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="24">
+      <c r="A53" s="19">
         <v>42</v>
       </c>
-      <c r="B53" s="28"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="8" t="d">
         <v>2021-07-01T21:00:00.000</v>
       </c>
@@ -3206,14 +2953,14 @@
       <c r="H53" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="24">
+      <c r="A54" s="19">
         <v>43</v>
       </c>
-      <c r="B54" s="28"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="8" t="d">
         <v>2021-07-02T18:00:00.000</v>
       </c>
@@ -3228,14 +2975,14 @@
       <c r="H54" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="24">
+      <c r="A55" s="19">
         <v>44</v>
       </c>
-      <c r="B55" s="28"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="8" t="d">
         <v>2021-07-02T21:00:00.000</v>
       </c>
@@ -3250,35 +2997,35 @@
       <c r="H55" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
     </row>
     <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
     </row>
     <row r="57" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="22" t="s">
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="18" t="s">
         <v>38</v>
       </c>
       <c r="J57" s="6"/>
@@ -3287,7 +3034,7 @@
       <c r="A58" s="7">
         <v>45</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="8" t="d">
@@ -3304,14 +3051,14 @@
       <c r="H58" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
     </row>
     <row r="59" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="24">
+      <c r="A59" s="19">
         <v>46</v>
       </c>
-      <c r="B59" s="28"/>
+      <c r="B59" s="23"/>
       <c r="C59" s="8" t="d">
         <v>2021-07-05T21:00:00.000</v>
       </c>
@@ -3326,14 +3073,14 @@
       <c r="H59" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
     </row>
     <row r="60" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="24">
+      <c r="A60" s="19">
         <v>47</v>
       </c>
-      <c r="B60" s="28"/>
+      <c r="B60" s="23"/>
       <c r="C60" s="8" t="d">
         <v>2021-07-06T18:00:00.000</v>
       </c>
@@ -3343,19 +3090,19 @@
       <c r="E60" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
       <c r="H60" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
     </row>
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="24">
+      <c r="A61" s="19">
         <v>48</v>
       </c>
-      <c r="B61" s="28"/>
+      <c r="B61" s="23"/>
       <c r="C61" s="8" t="d">
         <v>2021-07-06T21:00:00.000</v>
       </c>
@@ -3370,68 +3117,66 @@
       <c r="H61" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
     </row>
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
     </row>
     <row r="63" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="37" t="s">
+      <c r="A63" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B63" s="37"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="26" t="s">
-        <v>70</v>
-      </c>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="21"/>
       <c r="J63" s="6"/>
     </row>
     <row r="64" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="30">
+      <c r="A64" s="25">
         <v>49</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C64" s="32" t="d">
+      <c r="C64" s="27" t="d">
         <v>2021-07-09T21:00:00.000</v>
       </c>
       <c r="D64" s="9" t="d">
         <v>2021-07-06T21:00:00.000</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
+        <v>63</v>
+      </c>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
     </row>
     <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="24">
+      <c r="A65" s="19">
         <v>50</v>
       </c>
-      <c r="B65" s="28"/>
+      <c r="B65" s="23"/>
       <c r="C65" s="8" t="d">
         <v>2021-07-10T21:00:00.000</v>
       </c>
@@ -3439,52 +3184,50 @@
         <v>2021-07-07T21:00:00.000</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
     </row>
     <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
     </row>
     <row r="67" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="26" t="s">
-        <v>70</v>
-      </c>
+      <c r="A67" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="21"/>
       <c r="J67" s="6"/>
     </row>
     <row r="68" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>51</v>
       </c>
-      <c r="B68" s="33" t="s">
-        <v>85</v>
+      <c r="B68" s="28" t="s">
+        <v>81</v>
       </c>
       <c r="C68" s="8" t="d">
         <v>2021-07-14T21:00:00.000</v>
@@ -3493,18 +3236,24 @@
         <v>2021-07-11T21:00:00.000</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I68" s="23"/>
-      <c r="J68" s="23"/>
+        <v>45</v>
+      </c>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
     <mergeCell ref="A63:H63"/>
     <mergeCell ref="A66:H66"/>
     <mergeCell ref="A67:H67"/>
@@ -3514,164 +3263,120 @@
     <mergeCell ref="A56:H56"/>
     <mergeCell ref="A57:H57"/>
     <mergeCell ref="A62:H62"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A20:H20"/>
   </mergeCells>
-  <conditionalFormatting sqref="H58:H59 H61 H64:H65 H68">
-    <cfRule type="expression" dxfId="27" priority="15" stopIfTrue="1">
+  <conditionalFormatting sqref="E8:E17 E21:G26 E28:G32 E34:G45">
+    <cfRule type="expression" dxfId="27" priority="7" stopIfTrue="1">
+      <formula>#REF!&lt;$G8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="8" stopIfTrue="1">
+      <formula>#REF!&gt;$G8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="expression" dxfId="25" priority="13" stopIfTrue="1">
+      <formula>#REF!&lt;$G18</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="14" stopIfTrue="1">
+      <formula>#REF!&gt;$G18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48:E55">
+    <cfRule type="expression" dxfId="23" priority="27" stopIfTrue="1">
+      <formula>#REF!&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="28" stopIfTrue="1">
       <formula>#REF!&lt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="29" stopIfTrue="1">
+      <formula>#REF!&lt;$G48</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="30" stopIfTrue="1">
+      <formula>#REF!&gt;$G48</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:E61 E64:E65 E68">
-    <cfRule type="expression" dxfId="26" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="19" stopIfTrue="1">
+      <formula>#REF!&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
       <formula>#REF!&lt;#REF!</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="17" priority="21" stopIfTrue="1">
+      <formula>#REF!&lt;$G58</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="22" stopIfTrue="1">
+      <formula>#REF!&gt;$G58</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="expression" dxfId="25" priority="24" stopIfTrue="1">
-      <formula>#REF!&lt;#REF!</formula>
+  <conditionalFormatting sqref="F8:G19">
+    <cfRule type="expression" dxfId="15" priority="11" stopIfTrue="1">
+      <formula>#REF!&lt;$G8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
+      <formula>#REF!&gt;$G8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H19 H21:H26 H28:H32 H34:H45">
+    <cfRule type="expression" dxfId="13" priority="9" stopIfTrue="1">
+      <formula>#REF!&gt;$G8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="10" stopIfTrue="1">
+      <formula>#REF!&lt;$G8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48:H55">
-    <cfRule type="expression" dxfId="24" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="31" stopIfTrue="1">
       <formula>#REF!&lt;#REF!</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48:E55">
-    <cfRule type="expression" dxfId="23" priority="28" stopIfTrue="1">
-      <formula>#REF!&lt;#REF!</formula>
+    <cfRule type="expression" dxfId="10" priority="32" stopIfTrue="1">
+      <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="22" priority="13" stopIfTrue="1">
-      <formula>#REF!&lt;$G18</formula>
+    <cfRule type="expression" dxfId="9" priority="33" stopIfTrue="1">
+      <formula>#REF!&gt;$G48</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48:E55">
-    <cfRule type="expression" dxfId="21" priority="29" stopIfTrue="1">
-      <formula>#REF!&lt;$G48</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48:H55">
-    <cfRule type="expression" dxfId="20" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="34" stopIfTrue="1">
       <formula>#REF!&lt;$G48</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58:H59 H61 H64:H65 H68">
-    <cfRule type="expression" dxfId="19" priority="18" stopIfTrue="1">
-      <formula>#REF!&lt;$G58</formula>
+    <cfRule type="expression" dxfId="7" priority="15" stopIfTrue="1">
+      <formula>#REF!&lt;#REF!</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58:E61 E64:E65 E68">
-    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="16" stopIfTrue="1">
+      <formula>#REF!&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="17" stopIfTrue="1">
+      <formula>#REF!&gt;$G58</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="18" stopIfTrue="1">
       <formula>#REF!&lt;$G58</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="expression" dxfId="17" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="23" stopIfTrue="1">
+      <formula>#REF!&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="24" stopIfTrue="1">
+      <formula>#REF!&lt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="25" stopIfTrue="1">
       <formula>#REF!&lt;$G60</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H19 H21:H26 H28:H32 H34:H45">
-    <cfRule type="expression" dxfId="16" priority="10" stopIfTrue="1">
-      <formula>#REF!&lt;$G8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E17 E21:G26 E28:G32 E34:G45">
-    <cfRule type="expression" dxfId="15" priority="7" stopIfTrue="1">
-      <formula>#REF!&lt;$G8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:G19">
-    <cfRule type="expression" dxfId="14" priority="11" stopIfTrue="1">
-      <formula>#REF!&lt;$G8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58:E61 E64:E65 E68">
-    <cfRule type="expression" dxfId="13" priority="19" stopIfTrue="1">
-      <formula>#REF!&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="expression" dxfId="12" priority="23" stopIfTrue="1">
-      <formula>#REF!&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58:H59 H61 H64:H65 H68">
-    <cfRule type="expression" dxfId="11" priority="16" stopIfTrue="1">
-      <formula>#REF!&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48:E55">
-    <cfRule type="expression" dxfId="10" priority="27" stopIfTrue="1">
-      <formula>#REF!&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48:H55">
-    <cfRule type="expression" dxfId="9" priority="32" stopIfTrue="1">
-      <formula>#REF!&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="8" priority="14" stopIfTrue="1">
-      <formula>#REF!&gt;$G18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48:H55">
-    <cfRule type="expression" dxfId="7" priority="33" stopIfTrue="1">
-      <formula>#REF!&gt;$G48</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48:E55">
-    <cfRule type="expression" dxfId="6" priority="30" stopIfTrue="1">
-      <formula>#REF!&gt;$G48</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58:E61 E64:E65 E68">
-    <cfRule type="expression" dxfId="5" priority="22" stopIfTrue="1">
-      <formula>#REF!&gt;$G58</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58:H59 H61 H64:H65 H68">
-    <cfRule type="expression" dxfId="4" priority="17" stopIfTrue="1">
-      <formula>#REF!&gt;$G58</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="expression" dxfId="3" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="26" stopIfTrue="1">
       <formula>#REF!&gt;$G60</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E17 E21:G26 E28:G32 E34:G45">
-    <cfRule type="expression" dxfId="2" priority="8" stopIfTrue="1">
-      <formula>#REF!&gt;$G8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:G19">
-    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
-      <formula>#REF!&gt;$G8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H19 H21:H26 H28:H32 H34:H45">
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
-      <formula>#REF!&gt;$G8</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I7" r:id="rId1"/>
-    <hyperlink ref="I33" r:id="rId2"/>
-    <hyperlink ref="I57" r:id="rId3"/>
+    <hyperlink ref="I7" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="I33" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="I57" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3684,7 +3389,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -3695,7 +3400,7 @@
     </row>
     <row r="2" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -3705,17 +3410,17 @@
       <c r="G2" s="40"/>
     </row>
     <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -3725,17 +3430,17 @@
       <c r="G4" s="40"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -3745,13 +3450,13 @@
       <c r="G6" s="40"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="7">
